--- a/atr2.xlsx
+++ b/atr2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ATR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATR" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,43 +437,46 @@
         </is>
       </c>
       <c r="C1" t="n">
+        <v>700000000</v>
+      </c>
+      <c r="D1" t="n">
+        <v>800000000</v>
+      </c>
+      <c r="E1" t="n">
+        <v>900000000</v>
+      </c>
+      <c r="F1" t="n">
+        <v>1000000000</v>
+      </c>
+      <c r="G1" t="n">
         <v>1100000000</v>
       </c>
-      <c r="D1" t="n">
+      <c r="H1" t="n">
         <v>1200000000</v>
       </c>
-      <c r="E1" t="n">
+      <c r="I1" t="n">
         <v>1300000000</v>
       </c>
-      <c r="F1" t="n">
+      <c r="J1" t="n">
         <v>1400000000</v>
       </c>
-      <c r="G1" t="n">
+      <c r="K1" t="n">
         <v>1500000000</v>
       </c>
-      <c r="H1" t="n">
+      <c r="L1" t="n">
         <v>1600000000</v>
       </c>
-      <c r="I1" t="n">
+      <c r="M1" t="n">
         <v>1700000000</v>
       </c>
-      <c r="J1" t="n">
+      <c r="N1" t="n">
         <v>1800000000</v>
       </c>
-      <c r="K1" t="n">
+      <c r="O1" t="n">
         <v>1900000000</v>
       </c>
-      <c r="L1" t="n">
+      <c r="P1" t="n">
         <v>2000000000</v>
-      </c>
-      <c r="M1" t="n">
-        <v>2100000000</v>
-      </c>
-      <c r="N1" t="n">
-        <v>2200000000</v>
-      </c>
-      <c r="O1" t="n">
-        <v>2300000000</v>
       </c>
     </row>
     <row r="2">
@@ -488,37 +491,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-19</v>
+        <v>43.35</v>
       </c>
       <c r="D2" t="n">
-        <v>-19</v>
+        <v>43.31</v>
       </c>
       <c r="E2" t="n">
-        <v>-19</v>
+        <v>-1</v>
       </c>
       <c r="F2" t="n">
-        <v>-19</v>
-      </c>
-      <c r="G2" t="n">
-        <v>-19</v>
-      </c>
-      <c r="H2" t="n">
-        <v>-19</v>
-      </c>
-      <c r="I2" t="n">
-        <v>-19</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-19</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-19</v>
-      </c>
-      <c r="L2" t="n">
-        <v>-19</v>
-      </c>
-      <c r="M2" t="n">
-        <v>-19</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3">
@@ -532,6 +514,15 @@
           <t>dBm</t>
         </is>
       </c>
+      <c r="C3" t="n">
+        <v>-3.7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.6</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -544,6 +535,15 @@
           <t>W</t>
         </is>
       </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -556,6 +556,15 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C5" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.22</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -569,37 +578,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>49.92</v>
+        <v>45.76</v>
       </c>
       <c r="D6" t="n">
-        <v>49.97</v>
+        <v>44.21</v>
       </c>
       <c r="E6" t="n">
-        <v>50.02</v>
-      </c>
-      <c r="F6" t="n">
-        <v>50.08</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50.13</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50.23</v>
-      </c>
-      <c r="I6" t="n">
-        <v>50.33</v>
-      </c>
-      <c r="J6" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="K6" t="n">
-        <v>50.63</v>
-      </c>
-      <c r="L6" t="n">
-        <v>50.82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>51.06</v>
+        <v>43.31</v>
       </c>
     </row>
     <row r="7">
@@ -614,37 +599,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>98.17479430199843</v>
+        <v>37.7</v>
       </c>
       <c r="D7" t="n">
-        <v>99.31160484209335</v>
+        <v>26.4</v>
       </c>
       <c r="E7" t="n">
-        <v>100.4615790278397</v>
-      </c>
-      <c r="F7" t="n">
-        <v>101.8591388054117</v>
-      </c>
-      <c r="G7" t="n">
-        <v>103.0386120441616</v>
-      </c>
-      <c r="H7" t="n">
-        <v>105.4386896391258</v>
-      </c>
-      <c r="I7" t="n">
-        <v>107.8946722229827</v>
-      </c>
-      <c r="J7" t="n">
-        <v>110.4078619902074</v>
-      </c>
-      <c r="K7" t="n">
-        <v>115.6112242192101</v>
-      </c>
-      <c r="L7" t="n">
-        <v>120.781383510678</v>
-      </c>
-      <c r="M7" t="n">
-        <v>127.6438808811344</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="8">
@@ -658,6 +619,15 @@
           <t>A</t>
         </is>
       </c>
+      <c r="C8" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -671,37 +641,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>49.93</v>
+        <v>46.25</v>
       </c>
       <c r="D9" t="n">
-        <v>49.97</v>
+        <v>45.78</v>
       </c>
       <c r="E9" t="n">
-        <v>50.02</v>
-      </c>
-      <c r="F9" t="n">
-        <v>50.08</v>
-      </c>
-      <c r="G9" t="n">
-        <v>50.13</v>
-      </c>
-      <c r="H9" t="n">
-        <v>50.23</v>
-      </c>
-      <c r="I9" t="n">
-        <v>50.33</v>
-      </c>
-      <c r="J9" t="n">
-        <v>50.43</v>
-      </c>
-      <c r="K9" t="n">
-        <v>50.63</v>
-      </c>
-      <c r="L9" t="n">
-        <v>50.82</v>
-      </c>
-      <c r="M9" t="n">
-        <v>51.06</v>
+        <v>46.23</v>
       </c>
     </row>
     <row r="10">
@@ -716,37 +662,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>98.40111057611345</v>
+        <v>42.2</v>
       </c>
       <c r="D10" t="n">
-        <v>99.31160484209335</v>
+        <v>37.8</v>
       </c>
       <c r="E10" t="n">
-        <v>100.4615790278397</v>
-      </c>
-      <c r="F10" t="n">
-        <v>101.8591388054117</v>
-      </c>
-      <c r="G10" t="n">
-        <v>103.0386120441616</v>
-      </c>
-      <c r="H10" t="n">
-        <v>105.4386896391258</v>
-      </c>
-      <c r="I10" t="n">
-        <v>107.8946722229827</v>
-      </c>
-      <c r="J10" t="n">
-        <v>110.4078619902074</v>
-      </c>
-      <c r="K10" t="n">
-        <v>115.6112242192101</v>
-      </c>
-      <c r="L10" t="n">
-        <v>120.781383510678</v>
-      </c>
-      <c r="M10" t="n">
-        <v>127.6438808811344</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
@@ -759,6 +681,15 @@
         <is>
           <t>A</t>
         </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
